--- a/data/documentation/spreadsheets/done/chocolatey@choco.xlsx
+++ b/data/documentation/spreadsheets/done/chocolatey@choco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67D15A7-85F8-43A7-A1AF-08F7D17F21C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45945AA-832C-4F25-B845-3CACDD0FB21A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="221">
   <si>
     <t>CF – Contribution flow</t>
   </si>
@@ -1005,18 +1005,18 @@
   <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F215" sqref="F215"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.296875" customWidth="1"/>
-    <col min="2" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="26" width="7.59765625" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
+    <col min="2" max="7" width="22.47265625" customWidth="1"/>
+    <col min="8" max="26" width="7.6171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,202 +1036,202 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7" t="s">
         <v>49</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
         <v>50</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7" t="s">
         <v>51</v>
       </c>
@@ -1295,29 +1295,23 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B49" t="s">
-        <v>220</v>
-      </c>
       <c r="G49" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B50" t="s">
-        <v>220</v>
-      </c>
       <c r="G50" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>54</v>
       </c>
@@ -1325,7 +1319,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7" t="s">
         <v>55</v>
       </c>
@@ -1333,93 +1327,90 @@
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B53" t="s">
-        <v>220</v>
-      </c>
       <c r="D53" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>72</v>
       </c>
@@ -1427,7 +1418,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="7" t="s">
         <v>73</v>
       </c>
@@ -1435,7 +1426,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="7" t="s">
         <v>74</v>
       </c>
@@ -1443,35 +1434,23 @@
         <v>220</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B72" t="s">
         <v>220</v>
       </c>
-      <c r="C72" t="s">
-        <v>220</v>
-      </c>
-      <c r="D72" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B73" t="s">
         <v>220</v>
       </c>
-      <c r="C73" t="s">
-        <v>220</v>
-      </c>
-      <c r="D73" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7" t="s">
         <v>77</v>
       </c>
@@ -1479,18 +1458,15 @@
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B75" t="s">
-        <v>220</v>
-      </c>
       <c r="C75" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7" t="s">
         <v>79</v>
       </c>
@@ -1498,7 +1474,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7" t="s">
         <v>80</v>
       </c>
@@ -1506,7 +1482,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="7" t="s">
         <v>81</v>
       </c>
@@ -1514,7 +1490,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="7" t="s">
         <v>82</v>
       </c>
@@ -1522,7 +1498,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="7" t="s">
         <v>83</v>
       </c>
@@ -1530,7 +1506,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="7" t="s">
         <v>84</v>
       </c>
@@ -1538,7 +1514,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="7" t="s">
         <v>85</v>
       </c>
@@ -1546,7 +1522,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="7" t="s">
         <v>86</v>
       </c>
@@ -1554,7 +1530,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7" t="s">
         <v>87</v>
       </c>
@@ -1562,7 +1538,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="7" t="s">
         <v>88</v>
       </c>
@@ -1570,7 +1546,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="7" t="s">
         <v>89</v>
       </c>
@@ -1578,7 +1554,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="7" t="s">
         <v>90</v>
       </c>
@@ -1586,7 +1562,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="7" t="s">
         <v>91</v>
       </c>
@@ -1594,7 +1570,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="7" t="s">
         <v>92</v>
       </c>
@@ -1602,7 +1578,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="7" t="s">
         <v>93</v>
       </c>
@@ -1610,7 +1586,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="7" t="s">
         <v>94</v>
       </c>
@@ -1618,7 +1594,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="7" t="s">
         <v>95</v>
       </c>
@@ -1626,7 +1602,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="7" t="s">
         <v>96</v>
       </c>
@@ -1634,7 +1610,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="7" t="s">
         <v>97</v>
       </c>
@@ -1642,12 +1618,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="7" t="s">
         <v>99</v>
       </c>
@@ -1655,7 +1631,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="7" t="s">
         <v>100</v>
       </c>
@@ -1663,7 +1639,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="7" t="s">
         <v>101</v>
       </c>
@@ -1671,7 +1647,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="7" t="s">
         <v>102</v>
       </c>
@@ -1679,7 +1655,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="7" t="s">
         <v>103</v>
       </c>
@@ -1687,7 +1663,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="7" t="s">
         <v>104</v>
       </c>
@@ -1695,7 +1671,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="7" t="s">
         <v>105</v>
       </c>
@@ -1703,7 +1679,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="7" t="s">
         <v>106</v>
       </c>
@@ -1711,7 +1687,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="7" t="s">
         <v>107</v>
       </c>
@@ -1719,7 +1695,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="7" t="s">
         <v>108</v>
       </c>
@@ -1727,7 +1703,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="7" t="s">
         <v>109</v>
       </c>
@@ -1735,7 +1711,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="7" t="s">
         <v>110</v>
       </c>
@@ -1743,7 +1719,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="7" t="s">
         <v>111</v>
       </c>
@@ -1751,7 +1727,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="7" t="s">
         <v>112</v>
       </c>
@@ -1759,7 +1735,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="7" t="s">
         <v>113</v>
       </c>
@@ -1767,7 +1743,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="7" t="s">
         <v>114</v>
       </c>
@@ -1775,7 +1751,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="7" t="s">
         <v>115</v>
       </c>
@@ -1783,7 +1759,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="7" t="s">
         <v>116</v>
       </c>
@@ -1791,7 +1767,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="7" t="s">
         <v>117</v>
       </c>
@@ -1799,7 +1775,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="7" t="s">
         <v>118</v>
       </c>
@@ -1807,7 +1783,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="7" t="s">
         <v>119</v>
       </c>
@@ -1815,7 +1791,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="7" t="s">
         <v>120</v>
       </c>
@@ -1823,7 +1799,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="7" t="s">
         <v>121</v>
       </c>
@@ -1831,7 +1807,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="7" t="s">
         <v>122</v>
       </c>
@@ -1839,7 +1815,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="7" t="s">
         <v>123</v>
       </c>
@@ -1847,7 +1823,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="7" t="s">
         <v>124</v>
       </c>
@@ -1855,7 +1831,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="7" t="s">
         <v>125</v>
       </c>
@@ -1863,7 +1839,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="7" t="s">
         <v>126</v>
       </c>
@@ -1871,7 +1847,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="7" t="s">
         <v>127</v>
       </c>
@@ -1879,7 +1855,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="7" t="s">
         <v>128</v>
       </c>
@@ -1887,7 +1863,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="7" t="s">
         <v>129</v>
       </c>
@@ -1895,7 +1871,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="7" t="s">
         <v>130</v>
       </c>
@@ -1903,7 +1879,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="7" t="s">
         <v>131</v>
       </c>
@@ -1911,7 +1887,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="7" t="s">
         <v>132</v>
       </c>
@@ -1919,7 +1895,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="7" t="s">
         <v>133</v>
       </c>
@@ -1927,7 +1903,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="7" t="s">
         <v>134</v>
       </c>
@@ -1935,7 +1911,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="7" t="s">
         <v>135</v>
       </c>
@@ -1943,7 +1919,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="7" t="s">
         <v>136</v>
       </c>
@@ -1951,7 +1927,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="7" t="s">
         <v>137</v>
       </c>
@@ -1959,7 +1935,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="7" t="s">
         <v>138</v>
       </c>
@@ -1967,7 +1943,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="7" t="s">
         <v>139</v>
       </c>
@@ -1975,7 +1951,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="7" t="s">
         <v>140</v>
       </c>
@@ -1983,7 +1959,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="7" t="s">
         <v>141</v>
       </c>
@@ -1991,132 +1967,132 @@
         <v>220</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="7" t="s">
         <v>167</v>
       </c>
@@ -2124,7 +2100,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="7" t="s">
         <v>168</v>
       </c>
@@ -2132,7 +2108,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="7" t="s">
         <v>169</v>
       </c>
@@ -2140,7 +2116,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="7" t="s">
         <v>170</v>
       </c>
@@ -2148,7 +2124,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="7" t="s">
         <v>171</v>
       </c>
@@ -2156,7 +2132,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="7" t="s">
         <v>172</v>
       </c>
@@ -2164,7 +2140,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="7" t="s">
         <v>173</v>
       </c>
@@ -2172,7 +2148,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="7" t="s">
         <v>174</v>
       </c>
@@ -2180,7 +2156,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="7" t="s">
         <v>175</v>
       </c>
@@ -2188,7 +2164,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="7" t="s">
         <v>176</v>
       </c>
@@ -2196,7 +2172,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="7" t="s">
         <v>177</v>
       </c>
@@ -2204,7 +2180,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="7" t="s">
         <v>178</v>
       </c>
@@ -2212,7 +2188,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="7" t="s">
         <v>179</v>
       </c>
@@ -2220,7 +2196,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="7" t="s">
         <v>180</v>
       </c>
@@ -2228,7 +2204,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="7" t="s">
         <v>181</v>
       </c>
@@ -2236,7 +2212,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="7" t="s">
         <v>182</v>
       </c>
@@ -2244,7 +2220,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="7" t="s">
         <v>183</v>
       </c>
@@ -2252,47 +2228,47 @@
         <v>220</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="7" t="s">
         <v>192</v>
       </c>
@@ -2300,7 +2276,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="7" t="s">
         <v>193</v>
       </c>
@@ -2308,7 +2284,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="7" t="s">
         <v>194</v>
       </c>
@@ -2316,7 +2292,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="7" t="s">
         <v>195</v>
       </c>
@@ -2324,7 +2300,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="7" t="s">
         <v>196</v>
       </c>
@@ -2332,7 +2308,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="7" t="s">
         <v>197</v>
       </c>
@@ -2340,7 +2316,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="7" t="s">
         <v>198</v>
       </c>
@@ -2348,7 +2324,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="7" t="s">
         <v>199</v>
       </c>
@@ -2356,7 +2332,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="7" t="s">
         <v>200</v>
       </c>
@@ -2364,7 +2340,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="7" t="s">
         <v>201</v>
       </c>
@@ -2372,7 +2348,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="7" t="s">
         <v>202</v>
       </c>
@@ -2380,7 +2356,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="7" t="s">
         <v>203</v>
       </c>
@@ -2388,7 +2364,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="7" t="s">
         <v>204</v>
       </c>
@@ -2396,7 +2372,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="7" t="s">
         <v>205</v>
       </c>
@@ -2404,7 +2380,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="7" t="s">
         <v>206</v>
       </c>
@@ -2412,7 +2388,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="7" t="s">
         <v>207</v>
       </c>
@@ -2420,7 +2396,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="7" t="s">
         <v>208</v>
       </c>
@@ -2428,7 +2404,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="7" t="s">
         <v>209</v>
       </c>
@@ -2436,7 +2412,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="7" t="s">
         <v>210</v>
       </c>
@@ -2444,7 +2420,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="7" t="s">
         <v>211</v>
       </c>
@@ -2452,7 +2428,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="7" t="s">
         <v>212</v>
       </c>
@@ -2460,7 +2436,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="7" t="s">
         <v>213</v>
       </c>
@@ -2468,7 +2444,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="7" t="s">
         <v>214</v>
       </c>
@@ -2476,7 +2452,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="7" t="s">
         <v>215</v>
       </c>
@@ -2484,12 +2460,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="7" t="s">
         <v>217</v>
       </c>
@@ -2497,12 +2473,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="7" t="s">
         <v>219</v>
       </c>
